--- a/Pinmap/Bran Pin Map.xlsx
+++ b/Pinmap/Bran Pin Map.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7320" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="7320"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="history" sheetId="2" r:id="rId2"/>
+    <sheet name="Pinmap" sheetId="1" r:id="rId1"/>
+    <sheet name="History" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="355">
   <si>
     <t>Item</t>
   </si>
@@ -1059,20 +1059,55 @@
     <t>AGND</t>
   </si>
   <si>
-    <t>V01.增加history文档，用于记录每次文档的更改说明，修改文件名字为 Bran Pin map。-----20160619</t>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+      </rPr>
+      <t>初版</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发行</t>
+    </r>
+  </si>
+  <si>
+    <t>v0.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加history文档,用于记录每次更改结果,更改文件名字为 R8 dev_pin map for bran。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Violet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1081,151 +1116,52 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="細明體"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1234,192 +1170,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor indexed="65"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1482,48 +1244,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1531,203 +1280,26 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1758,58 +1330,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="一般_BOM變更履歷表-new" xfId="1"/>
+    <cellStyle name="一般_目檢圖線路圖 ECN" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
@@ -2100,24 +1702,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H179"/>
   <sheetViews>
-    <sheetView topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="C182" sqref="C182"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.1818181818182" customWidth="1"/>
-    <col min="2" max="2" width="20.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="15.2909090909091" customWidth="1"/>
-    <col min="4" max="4" width="19.7272727272727" customWidth="1"/>
-    <col min="5" max="5" width="27.5272727272727" customWidth="1"/>
-    <col min="6" max="6" width="14.6363636363636" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="27.5" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="36.9090909090909" customWidth="1"/>
+    <col min="8" max="8" width="36.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5392,70 +4993,802 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E178:E179"/>
+    <mergeCell ref="E106:E153"/>
+    <mergeCell ref="E154:E157"/>
+    <mergeCell ref="E160:E167"/>
+    <mergeCell ref="E168:E172"/>
+    <mergeCell ref="E173:E177"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="E93:E97"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="E69:E72"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="E76:E79"/>
+    <mergeCell ref="E80:E82"/>
+    <mergeCell ref="E83:E85"/>
     <mergeCell ref="E2:E34"/>
     <mergeCell ref="E35:E38"/>
     <mergeCell ref="E39:E46"/>
     <mergeCell ref="E47:E51"/>
     <mergeCell ref="E52:E68"/>
-    <mergeCell ref="E69:E72"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="E76:E79"/>
-    <mergeCell ref="E80:E82"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="E93:E97"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="E106:E153"/>
-    <mergeCell ref="E154:E157"/>
-    <mergeCell ref="E160:E167"/>
-    <mergeCell ref="E168:E172"/>
-    <mergeCell ref="E173:E177"/>
-    <mergeCell ref="E178:E179"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36:G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="8" max="8" width="20.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="15.75">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="11" t="s">
         <v>347</v>
       </c>
+      <c r="B2" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="11" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" ht="14.25">
+      <c r="A4" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="B4" s="19">
+        <v>42540</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="18" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:8" ht="14.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="1:8" ht="14.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" ht="14.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" ht="14.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:8" ht="14.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="1:8" ht="14.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:8" ht="14.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="1:8" ht="14.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:8" ht="14.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:8" ht="14.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:8" ht="14.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="1:8" ht="14.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="1:8" ht="14.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="1:8" ht="14.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="1:8" ht="14.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="1:8" ht="14.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:8" ht="14.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="1:8" ht="14.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="1:8" ht="14.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="1:8" ht="14.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="1:8" ht="14.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="1:8" ht="14.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="1:8" ht="14.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="1:8" ht="14.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="1:8" ht="14.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" spans="1:8" ht="14.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" spans="1:8" ht="14.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="18"/>
+    </row>
+    <row r="37" spans="1:8" ht="14.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="18"/>
+    </row>
+    <row r="38" spans="1:8" ht="14.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="18"/>
+    </row>
+    <row r="39" spans="1:8" ht="14.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="18"/>
+    </row>
+    <row r="40" spans="1:8" ht="14.25">
+      <c r="A40" s="29"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="18"/>
+    </row>
+    <row r="41" spans="1:8" ht="14.25">
+      <c r="A41" s="29"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" spans="1:8" ht="14.25">
+      <c r="A42" s="29"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="18"/>
+    </row>
+    <row r="43" spans="1:8" ht="14.25">
+      <c r="A43" s="29"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="18"/>
+    </row>
+    <row r="44" spans="1:8" ht="14.25">
+      <c r="A44" s="29"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="18"/>
+    </row>
+    <row r="45" spans="1:8" ht="14.25">
+      <c r="A45" s="30"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="18"/>
+    </row>
+    <row r="46" spans="1:8" ht="14.25">
+      <c r="A46" s="30"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="18"/>
+    </row>
+    <row r="47" spans="1:8" ht="14.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="18"/>
+    </row>
+    <row r="48" spans="1:8" ht="14.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="13"/>
+    </row>
+    <row r="49" spans="1:8" ht="14.25">
+      <c r="A49" s="13"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="13"/>
+    </row>
+    <row r="50" spans="1:8" ht="14.25">
+      <c r="A50" s="13"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="13"/>
+    </row>
+    <row r="51" spans="1:8" ht="14.25">
+      <c r="A51" s="13"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="13"/>
+    </row>
+    <row r="52" spans="1:8" ht="14.25">
+      <c r="A52" s="13"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="13"/>
+    </row>
+    <row r="53" spans="1:8" ht="14.25">
+      <c r="A53" s="13"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="13"/>
+    </row>
+    <row r="54" spans="1:8" ht="14.25">
+      <c r="A54" s="13"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="13"/>
+    </row>
+    <row r="55" spans="1:8" ht="14.25">
+      <c r="A55" s="13"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="13"/>
+    </row>
+    <row r="56" spans="1:8" ht="14.25">
+      <c r="A56" s="13"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="13"/>
+    </row>
+    <row r="57" spans="1:8" ht="14.25">
+      <c r="A57" s="13"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="13"/>
+    </row>
+    <row r="58" spans="1:8" ht="14.25">
+      <c r="A58" s="13"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="13"/>
+    </row>
+    <row r="59" spans="1:8" ht="14.25">
+      <c r="A59" s="13"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="13"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="13"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="118">
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>